--- a/project/excel/include_schema.xlsx
+++ b/project/excel/include_schema.xlsx
@@ -1417,7 +1417,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="12">
     <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"d21,t21"</formula1>
     </dataValidation>
@@ -1427,6 +1427,9 @@
     <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"duo,other,proband_only,trio,trio_plus"</formula1>
     </dataValidation>
+    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"dead,alive"</formula1>
+    </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
     </dataValidation>
@@ -1441,6 +1444,9 @@
     </dataValidation>
     <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"duo,other,proband_only,trio,trio_plus"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"dead,alive"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>

--- a/project/excel/include_schema.xlsx
+++ b/project/excel/include_schema.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Aliquot" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Assay" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Biospecimen" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Condition" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="DataFile" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="FamilyGroup" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Participant" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Study" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Thing" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Aliquot1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Assay1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Biospecimen1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Condition1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="DataFile1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="FamilyGroup1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Participant1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Study1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Thing1" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,12 +477,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>uses_biospecimen</t>
+          <t>UsesBiospecimen</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_output</t>
+          <t>HasOutput</t>
         </is>
       </c>
     </row>
@@ -508,87 +508,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_biospecimen_collection</t>
+          <t>AgeAtBiospecimenCollection</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>biospecimen_storage</t>
+          <t>BiospecimenStorage</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>CollectionID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>collection_sample_type</t>
+          <t>CollectionSampleType</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>container_id</t>
+          <t>ContainerID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>has_datafile</t>
+          <t>HasDatafile</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>HasStudy</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>laboratory_procedure</t>
+          <t>LaboratoryProcedure</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>parent_sample_id</t>
+          <t>ParentSampleID</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>parent_sample_type</t>
+          <t>ParentSampleType</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>sample_availability</t>
+          <t>SampleAvailability</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>SampleID</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>sample_type</t>
+          <t>SampleType</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>volume_unit</t>
+          <t>VolumeUnit</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>has_aliquot</t>
+          <t>HasAliquot</t>
         </is>
       </c>
     </row>
@@ -614,62 +614,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>age_at_condition_observation</t>
+          <t>AgeAtConditionObservation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>mondo_label</t>
+          <t>MONDOLabel</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>mondo_code</t>
+          <t>MONDOCode</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>condition_interpretation</t>
+          <t>ConditionInterpretation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>condition_data_source</t>
+          <t>ConditionDataSource</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hpo_label</t>
+          <t>HPOLabel</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>hpo_code</t>
+          <t>HPOCode</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>maxo_label</t>
+          <t>MAXOLabel</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>maxo_code</t>
+          <t>MAXOCode</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>other_label</t>
+          <t>OtherLabel</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>other_code</t>
+          <t>OtherCode</t>
         </is>
       </c>
     </row>
@@ -695,77 +695,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>access_url</t>
+          <t>AccessURL</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>CollectionID</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data_access</t>
+          <t>DataAccess</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>data_category</t>
+          <t>DataCategory</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>data_type</t>
+          <t>DataType</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>experimental_strategy</t>
+          <t>ExperimentalStrategy</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>file_id</t>
+          <t>FileID</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>FileName</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>Format</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_biospecimen</t>
+          <t>HasBiospecimen</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>HasStudy</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>ParticipantID</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>original_file_name</t>
+          <t>OriginalFileName</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
     </row>
@@ -817,77 +817,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_last_vital_status</t>
+          <t>AgeAtLastVitalStatus</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>down_syndrome_status</t>
+          <t>DownSyndromeStatus</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>Ethnicity</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>external_id</t>
+          <t>ExternalID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>family_id</t>
+          <t>FamilyID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>family_relationship</t>
+          <t>FamilyRelationship</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>family_type</t>
+          <t>FamilyType</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>father_id</t>
+          <t>FatherID</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_datafile</t>
+          <t>HasDatafile</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>HasStudy</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>mother_id</t>
+          <t>MotherID</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>outcomes_vital_status</t>
+          <t>OutcomesVitalStatus</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>ParticipantID</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -913,22 +913,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dbgap</t>
+          <t>dbGap</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>study_code</t>
+          <t>StudyCode</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>study_name</t>
+          <t>StudyName</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>HasParticipant</t>
         </is>
       </c>
     </row>
@@ -972,12 +977,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>uses_biospecimen</t>
+          <t>UsesBiospecimen</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_output</t>
+          <t>HasOutput</t>
         </is>
       </c>
     </row>
@@ -1003,87 +1008,87 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_biospecimen_collection</t>
+          <t>AgeAtBiospecimenCollection</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>biospecimen_storage</t>
+          <t>BiospecimenStorage</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>CollectionID</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>collection_sample_type</t>
+          <t>CollectionSampleType</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>container_id</t>
+          <t>ContainerID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>has_datafile</t>
+          <t>HasDatafile</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>HasStudy</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>laboratory_procedure</t>
+          <t>LaboratoryProcedure</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>parent_sample_id</t>
+          <t>ParentSampleID</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>parent_sample_type</t>
+          <t>ParentSampleType</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>sample_availability</t>
+          <t>SampleAvailability</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>SampleID</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>sample_type</t>
+          <t>SampleType</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>Volume</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>volume_unit</t>
+          <t>VolumeUnit</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>has_aliquot</t>
+          <t>HasAliquot</t>
         </is>
       </c>
     </row>
@@ -1117,62 +1122,62 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>age_at_condition_observation</t>
+          <t>AgeAtConditionObservation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>mondo_label</t>
+          <t>MONDOLabel</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>mondo_code</t>
+          <t>MONDOCode</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>condition_interpretation</t>
+          <t>ConditionInterpretation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>condition_data_source</t>
+          <t>ConditionDataSource</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hpo_label</t>
+          <t>HPOLabel</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>hpo_code</t>
+          <t>HPOCode</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>maxo_label</t>
+          <t>MAXOLabel</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>maxo_code</t>
+          <t>MAXOCode</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>other_label</t>
+          <t>OtherLabel</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>other_code</t>
+          <t>OtherCode</t>
         </is>
       </c>
     </row>
@@ -1212,77 +1217,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>access_url</t>
+          <t>AccessURL</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>CollectionID</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data_access</t>
+          <t>DataAccess</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>data_category</t>
+          <t>DataCategory</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>data_type</t>
+          <t>DataType</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>experimental_strategy</t>
+          <t>ExperimentalStrategy</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>file_id</t>
+          <t>FileID</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>file_name</t>
+          <t>FileName</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>Format</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_biospecimen</t>
+          <t>HasBiospecimen</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>HasStudy</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>ParticipantID</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>original_file_name</t>
+          <t>OriginalFileName</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1321,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>HasParticipant</t>
         </is>
       </c>
     </row>
@@ -1342,77 +1347,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_last_vital_status</t>
+          <t>AgeAtLastVitalStatus</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>down_syndrome_status</t>
+          <t>DownSyndromeStatus</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>Ethnicity</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>external_id</t>
+          <t>ExternalID</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>family_id</t>
+          <t>FamilyID</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>family_relationship</t>
+          <t>FamilyRelationship</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>family_type</t>
+          <t>FamilyType</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>father_id</t>
+          <t>FatherID</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_datafile</t>
+          <t>HasDatafile</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>HasStudy</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>mother_id</t>
+          <t>MotherID</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>outcomes_vital_status</t>
+          <t>OutcomesVitalStatus</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>ParticipantID</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>Race</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>Sex</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1436,7 @@
       <formula1>"dead,alive"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_Race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
     </dataValidation>
     <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"female,male,other,unknown"</formula1>
@@ -1449,7 +1454,7 @@
       <formula1>"dead,alive"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_Race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
     </dataValidation>
     <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"female,male,other,unknown"</formula1>
@@ -1465,7 +1470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,22 +1481,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dbgap</t>
+          <t>dbGap</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>Program</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>study_code</t>
+          <t>StudyCode</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>study_name</t>
+          <t>StudyName</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>HasParticipant</t>
         </is>
       </c>
     </row>

--- a/project/excel/include_schema.xlsx
+++ b/project/excel/include_schema.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="17" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aliquot1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assay1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Biospecimen1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Condition1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataFile1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FamilyGroup1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Participant1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Study1" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thing1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Biospecimen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Condition" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DataFile" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Participant" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Study" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Thing" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Biospecimen1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Condition1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="DataFile1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Participant1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Study1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Thing1" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,14 +424,100 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hasStudy</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>hasParticipant</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>sampleId</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sampleType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ageAtBiospecimenCollection</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>parentSampleId</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>parentSampleType</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>collectionId</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>collectionSampleType</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>containerId</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>volumeUnit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>laboratoryProcedure</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>biospecimenStorage</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sampleAvailability</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"available,unavailable"</formula1>
+    </dataValidation>
+    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"available,unavailable"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -448,25 +528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +539,92 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>uses_biospecimen</t>
+          <t>hasStudy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_output</t>
+          <t>participantId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>participantExternalId</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>familyId</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>familyType</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>fatherId</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>motherId</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>siblingId</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>otherFamilyMemberId</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>familyRelationship</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>sex</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>downSyndromeStatus</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ageAtFirstPatientEngagement</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>firstPatientEngagementEvent</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>outcomesVitalStatus</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ageAtLastVitalStatus</t>
         </is>
       </c>
     </row>
@@ -491,412 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>age_at_biospecimen_collection</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>biospecimen_storage</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>collection_id</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>collection_sample_type</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>container_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>has_datafile</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>laboratory_procedure</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>parent_sample_id</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>parent_sample_type</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>sample_availability</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>sample_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>sample_type</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>volume_unit</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_aliquot</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>age_at_condition_observation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>mondo_label</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>mondo_code</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>condition_interpretation</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>condition_data_source</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>hpo_label</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>hpo_code</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>maxo_label</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>maxo_code</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>other_label</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>other_code</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>access_url</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>collection_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>data_access</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>data_category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>data_type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>experimental_strategy</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>file_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_biospecimen</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>original_file_name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>age_at_last_vital_status</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>down_syndrome_status</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>ethnicity</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>external_id</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>family_id</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>family_relationship</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>family_type</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>father_id</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_datafile</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>mother_id</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>outcomes_vital_status</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>race</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>sex</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -913,22 +650,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>studyCode</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>studyName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>program</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>dbgap</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>program</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>study_code</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>study_name</t>
         </is>
       </c>
     </row>
@@ -937,7 +674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -961,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,16 +709,131 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>uses_biospecimen</t>
+          <t>hasStudy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>has_output</t>
+          <t>hasParticipant</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>eventId</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>eventType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>conditionSourceText</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ageAtConditionObservation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>conditionInterpretation</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>conditionStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>conditionDataSource</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>hpoLabel</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>hpoCode</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>mondoLabel</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mondoCode</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>maxoLabel</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>maxoCode</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>otherLabel</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>otherCode</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>measureType</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>measureValue</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>measureUnit</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ageAtMeasurement</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"observed,not_observed"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"current,resolved,history_of"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"clinical,self_reported"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"observed,not_observed"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"current,resolved,history_of"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I2:I1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"clinical,self_reported"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -992,7 +844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,97 +855,92 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_biospecimen_collection</t>
+          <t>hasStudy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>biospecimen_storage</t>
+          <t>hasParticipant</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>hasBiospecimen</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>collection_sample_type</t>
+          <t>fileId</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>container_id</t>
+          <t>fileName</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>has_datafile</t>
+          <t>fileHash</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>dataAccess</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>dataCategory</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>laboratory_procedure</t>
+          <t>dataType</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>parent_sample_id</t>
+          <t>experimentalStrategy</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>parent_sample_type</t>
+          <t>experimentalPlatform</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>sample_availability</t>
+          <t>fileFormat</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>fileSize</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>sample_type</t>
+          <t>fileSizeUnit</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>accessUrl</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>volume_unit</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>has_aliquot</t>
+          <t>publicationDoi</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"available,unavailable"</formula1>
-    </dataValidation>
-    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"available,unavailable"</formula1>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"controlled,open,registered"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"controlled,open,registered"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1106,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,78 +964,138 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>has_participant</t>
+          <t>hasStudy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>age_at_condition_observation</t>
+          <t>participantId</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>mondo_label</t>
+          <t>participantExternalId</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>mondo_code</t>
+          <t>familyId</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>condition_interpretation</t>
+          <t>familyType</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>condition_data_source</t>
+          <t>fatherId</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hpo_label</t>
+          <t>motherId</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>hpo_code</t>
+          <t>siblingId</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>maxo_label</t>
+          <t>otherFamilyMemberId</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>maxo_code</t>
+          <t>familyRelationship</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>other_label</t>
+          <t>sex</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>other_code</t>
+          <t>race</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>ethnicity</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>downSyndromeStatus</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>ageAtFirstPatientEngagement</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>firstPatientEngagementEvent</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>outcomesVitalStatus</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>ageAtLastVitalStatus</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="14">
     <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"observed,not_observed"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"clinical,self_reported"</formula1>
+      <formula1>"control_only,duo,other,proband_only,trio,trio_plus"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"proband,father,mother,sibling,other_relative,unrelated_control"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K2:K1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"female,male,other,unknown"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer,unknown,east_asian,latin_american,middle_eastern_or_north_african,south_asian"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M2:M1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"hispanic_or_latino,not_hispanic_or_latino,prefer_not_to_answer,unknown"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"d21,t21"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q2:Q1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"dead,alive,unknown_or_not_available"</formula1>
     </dataValidation>
     <dataValidation sqref="E2:E1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"observed,not_observed"</formula1>
-    </dataValidation>
-    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"clinical,self_reported"</formula1>
+      <formula1>"control_only,duo,other,proband_only,trio,trio_plus"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2:J1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"proband,father,mother,sibling,other_relative,unrelated_control"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K2:K1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"female,male,other,unknown"</formula1>
+    </dataValidation>
+    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer,unknown,east_asian,latin_american,middle_eastern_or_north_african,south_asian"</formula1>
+    </dataValidation>
+    <dataValidation sqref="M2:M1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"hispanic_or_latino,not_hispanic_or_latino,prefer_not_to_answer,unknown"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"d21,t21"</formula1>
+    </dataValidation>
+    <dataValidation sqref="Q2:Q1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"dead,alive,unknown_or_not_available"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1201,7 +1108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,87 +1119,38 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>access_url</t>
+          <t>studyCode</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>studyName</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>data_access</t>
+          <t>program</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>data_category</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>data_type</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>experimental_strategy</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>file_id</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>file_name</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>has_biospecimen</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>has_study</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>participant_id</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>size</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>original_file_name</t>
+          <t>dbgap</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"abcds,ads,aecom_ds,brainpower,bri_dsr,charge_ds,ds_brain,ds_cog_all,ds_cog_aml,ds_determined,ds_hsat,ds_isp,ds_nexus,ds_pals,ds_pcgc,ds_sleep,ds360_chd,dsc,ecods,exceeds,htp,trc_ds,x01_desmith,x01_hakon"</formula1>
+    </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"controlled,open,registered"</formula1>
+      <formula1>"include,kf"</formula1>
+    </dataValidation>
+    <dataValidation sqref="A2:A1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"abcds,ads,aecom_ds,brainpower,bri_dsr,charge_ds,ds_brain,ds_cog_all,ds_cog_aml,ds_determined,ds_hsat,ds_isp,ds_nexus,ds_pals,ds_pcgc,ds_sleep,ds360_chd,dsc,ecods,exceeds,htp,trc_ds,x01_desmith,x01_hakon"</formula1>
     </dataValidation>
     <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"controlled,open,registered"</formula1>
+      <formula1>"include,kf"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1312,15 +1170,7 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>has_participant</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1342,119 +1192,81 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>age_at_last_vital_status</t>
+          <t>hasStudy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>down_syndrome_status</t>
+          <t>hasParticipant</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>ethnicity</t>
+          <t>sampleId</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>external_id</t>
+          <t>sampleType</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>family_id</t>
+          <t>ageAtBiospecimenCollection</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>family_relationship</t>
+          <t>parentSampleId</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>family_type</t>
+          <t>parentSampleType</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>father_id</t>
+          <t>collectionId</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>has_datafile</t>
+          <t>collectionSampleType</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>has_study</t>
+          <t>containerId</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>mother_id</t>
+          <t>volume</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>outcomes_vital_status</t>
+          <t>volumeUnit</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>participant_id</t>
+          <t>laboratoryProcedure</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>race</t>
+          <t>biospecimenStorage</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>sampleAvailability</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"d21,t21"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino,prefer_not_to_answer,unknown"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"duo,other,proband_only,trio,trio_plus"</formula1>
-    </dataValidation>
-    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"dead,alive"</formula1>
-    </dataValidation>
-    <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"female,male,other,unknown"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"d21,t21"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"asked_but_unknown,hispanic_or_latino,not_hispanic_or_latino,prefer_not_to_answer,unknown"</formula1>
-    </dataValidation>
-    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"duo,other,proband_only,trio,trio_plus"</formula1>
-    </dataValidation>
-    <dataValidation sqref="L2:L1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"dead,alive"</formula1>
-    </dataValidation>
-    <dataValidation sqref="N2:N1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"american_indian_or_alaskan_native,asian,black_or_african_american,more_than_one_race,native_hawaiian_or_other_pacific_islander,other,white,prefer_not_to_answer"</formula1>
-    </dataValidation>
-    <dataValidation sqref="O2:O1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"female,male,other,unknown"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1465,7 +1277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,40 +1288,111 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>dbgap</t>
+          <t>hasStudy</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>hasParticipant</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>study_code</t>
+          <t>eventId</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>study_name</t>
+          <t>eventType</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>conditionSourceText</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ageAtConditionObservation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>conditionInterpretation</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>conditionStatus</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>conditionDataSource</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>hpoLabel</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>hpoCode</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>mondoLabel</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>mondoCode</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>maxoLabel</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>maxoCode</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>otherLabel</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>otherCode</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>measureType</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>measureValue</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>measureUnit</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>ageAtMeasurement</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"include,kf"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp,abcds,ads,ds_brain,ds_cog_aml,bri_dsr,ds_isp,ds_nexus,ds_pals,ds_sleep,ecods,exceeds,trc_ds,x01_desmith,x01_hakon"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2:B1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"include,kf"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"ds_cog_all,ds_pcgc,ds360_chd,dsc,htp,abcds,ads,ds_brain,ds_cog_aml,bri_dsr,ds_isp,ds_nexus,ds_pals,ds_sleep,ecods,exceeds,trc_ds,x01_desmith,x01_hakon"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1520,14 +1403,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>hasStudy</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>hasParticipant</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>hasBiospecimen</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>fileId</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>fileName</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>fileHash</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dataAccess</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dataCategory</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dataType</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>experimentalStrategy</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>experimentalPlatform</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>fileFormat</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>fileSize</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>fileSizeUnit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>accessUrl</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>publicationDoi</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>